--- a/resources/04 Adverbien.xlsx
+++ b/resources/04 Adverbien.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80733F6-7851-E74B-BC34-EA828DB0D929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10380" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Essen</t>
   </si>
@@ -128,12 +134,18 @@
   </si>
   <si>
     <t>so much</t>
+  </si>
+  <si>
+    <t>gerade</t>
+  </si>
+  <si>
+    <t>just</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +272,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,16 +516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -490,7 +536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -501,7 +547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -509,7 +555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -520,7 +566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -528,7 +574,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
     </row>
   </sheetData>
@@ -537,16 +591,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -557,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
@@ -565,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -579,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -593,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -607,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -621,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -635,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -656,24 +710,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
